--- a/Code/Results/Cases/Case_2_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.577080476576214</v>
+        <v>1.01632183954996</v>
       </c>
       <c r="C2">
-        <v>1.107203033941232</v>
+        <v>0.4023430362566955</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04372434292358918</v>
+        <v>0.2104312468631395</v>
       </c>
       <c r="F2">
-        <v>2.798485075815535</v>
+        <v>2.920020281228375</v>
       </c>
       <c r="G2">
-        <v>0.0007902873739368569</v>
+        <v>0.002481576078569295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.339198004342208</v>
+        <v>1.19852442658032</v>
       </c>
       <c r="J2">
-        <v>0.09407583313933543</v>
+        <v>0.1024042581127063</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6899961266970891</v>
+        <v>0.4881751582873264</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.219721205196151</v>
+        <v>0.9247341823006536</v>
       </c>
       <c r="C3">
-        <v>0.9517342501490873</v>
+        <v>0.362348027856342</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04219167910091848</v>
+        <v>0.2111212489466503</v>
       </c>
       <c r="F3">
-        <v>2.533546326611955</v>
+        <v>2.870403107836196</v>
       </c>
       <c r="G3">
-        <v>0.0007998298425591077</v>
+        <v>0.002487224107565755</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.228063113313809</v>
+        <v>1.175547328409138</v>
       </c>
       <c r="J3">
-        <v>0.08945291092105379</v>
+        <v>0.1015824560539897</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5990143289514833</v>
+        <v>0.4681995966316421</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.003857914463197</v>
+        <v>0.8690486573294152</v>
       </c>
       <c r="C4">
-        <v>0.8582020806425987</v>
+        <v>0.3379977774332872</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04128349607266379</v>
+        <v>0.2115989946675594</v>
       </c>
       <c r="F4">
-        <v>2.3765652374707</v>
+        <v>2.841546261029691</v>
       </c>
       <c r="G4">
-        <v>0.0008058246802312085</v>
+        <v>0.002490870746426003</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.162992261687563</v>
+        <v>1.162101214449436</v>
       </c>
       <c r="J4">
-        <v>0.08684403440707911</v>
+        <v>0.1011258823149248</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5440604476986337</v>
+        <v>0.4562506741963333</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.916648849716807</v>
+        <v>0.8464933194668447</v>
       </c>
       <c r="C5">
-        <v>0.8204990205099989</v>
+        <v>0.3281258047595657</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04092138748110585</v>
+        <v>0.2118073550078741</v>
       </c>
       <c r="F5">
-        <v>2.313878927568496</v>
+        <v>2.830189068588595</v>
       </c>
       <c r="G5">
-        <v>0.0008083040078918197</v>
+        <v>0.002492401885210676</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.137188357034191</v>
+        <v>1.156786489278019</v>
       </c>
       <c r="J5">
-        <v>0.08583287729661748</v>
+        <v>0.1009517613891404</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5218647795209463</v>
+        <v>0.4514608657739601</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.902209801569995</v>
+        <v>0.8427562594529263</v>
       </c>
       <c r="C6">
-        <v>0.8142613602169888</v>
+        <v>0.3264896179052812</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04086173486036593</v>
+        <v>0.211842781269544</v>
       </c>
       <c r="F6">
-        <v>2.303543465757329</v>
+        <v>2.828327443421657</v>
       </c>
       <c r="G6">
-        <v>0.0008087179579092677</v>
+        <v>0.002492658858425654</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.132944409128555</v>
+        <v>1.155913877550731</v>
       </c>
       <c r="J6">
-        <v>0.08566795688867401</v>
+        <v>0.1009235656682748</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5181903643743127</v>
+        <v>0.4506703213381016</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.002678889611445</v>
+        <v>0.8687439152159868</v>
       </c>
       <c r="C7">
-        <v>0.8576920261222369</v>
+        <v>0.3378644356385792</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04127858054811107</v>
+        <v>0.2116017492151556</v>
       </c>
       <c r="F7">
-        <v>2.375714810484297</v>
+        <v>2.841391468386391</v>
       </c>
       <c r="G7">
-        <v>0.0008058579671858302</v>
+        <v>0.002490891213074196</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.162641478884979</v>
+        <v>1.162028873797425</v>
       </c>
       <c r="J7">
-        <v>0.08683019433290795</v>
+        <v>0.1011234859104384</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5437603433499447</v>
+        <v>0.4561857554015774</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.45303774062279</v>
+        <v>0.9846275367516455</v>
       </c>
       <c r="C8">
-        <v>1.053151759392506</v>
+        <v>0.3885091711360928</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04318886070813832</v>
+        <v>0.2106579800146573</v>
       </c>
       <c r="F8">
-        <v>2.70586023224422</v>
+        <v>2.902577119732896</v>
       </c>
       <c r="G8">
-        <v>0.0007935508705361803</v>
+        <v>0.002483486521931261</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.300168950265473</v>
+        <v>1.190463467965287</v>
       </c>
       <c r="J8">
-        <v>0.09243054842646359</v>
+        <v>0.102110851872105</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6584177891615752</v>
+        <v>0.4812219408200846</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.371421896869322</v>
+        <v>1.216306982365381</v>
       </c>
       <c r="C9">
-        <v>1.455423373237807</v>
+        <v>0.4895180781534236</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04721351846234789</v>
+        <v>0.2092331113738339</v>
       </c>
       <c r="F9">
-        <v>3.405839484989798</v>
+        <v>3.035432585774146</v>
       </c>
       <c r="G9">
-        <v>0.0007703796451554424</v>
+        <v>0.002470376652586503</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.599191378874551</v>
+        <v>1.251558989414718</v>
       </c>
       <c r="J9">
-        <v>0.1055274164247919</v>
+        <v>0.1044344072454564</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8920094227299629</v>
+        <v>0.5328313831683573</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.078866617443794</v>
+        <v>1.38934205018495</v>
       </c>
       <c r="C10">
-        <v>1.768461713099043</v>
+        <v>0.5648447060651733</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05037440415402195</v>
+        <v>0.2084416135365466</v>
       </c>
       <c r="F10">
-        <v>3.963872659172324</v>
+        <v>3.141053301013528</v>
       </c>
       <c r="G10">
-        <v>0.0007537618731021337</v>
+        <v>0.002461594440167057</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.843448495087756</v>
+        <v>1.299819012352884</v>
       </c>
       <c r="J10">
-        <v>0.1169072323429603</v>
+        <v>0.1063866571600443</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.071405390867241</v>
+        <v>0.5722937856243107</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.410797112620685</v>
+        <v>1.468700008489236</v>
       </c>
       <c r="C11">
-        <v>1.916252984012829</v>
+        <v>0.59937343004799</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05186768276094966</v>
+        <v>0.2081361081262649</v>
       </c>
       <c r="F11">
-        <v>4.230319553240946</v>
+        <v>3.190879490617448</v>
       </c>
       <c r="G11">
-        <v>0.0007462424435517792</v>
+        <v>0.002457781442831554</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.961671990614562</v>
+        <v>1.322532601180939</v>
       </c>
       <c r="J11">
-        <v>0.122591370087477</v>
+        <v>0.1073299780978374</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.155350350504698</v>
+        <v>0.5905849989595708</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.538241348383849</v>
+        <v>1.498845231437997</v>
       </c>
       <c r="C12">
-        <v>1.973150480412187</v>
+        <v>0.6124876423402839</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05244236148740633</v>
+        <v>0.2080281938499606</v>
       </c>
       <c r="F12">
-        <v>4.333330030234265</v>
+        <v>3.210005924578013</v>
       </c>
       <c r="G12">
-        <v>0.0007433960889502464</v>
+        <v>0.002456363571631375</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.007637878960566</v>
+        <v>1.331244965673932</v>
       </c>
       <c r="J12">
-        <v>0.1248293436002683</v>
+        <v>0.1076952881290723</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.187537406440811</v>
+        <v>0.5975604167660009</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.510710928597064</v>
+        <v>1.492348708374095</v>
       </c>
       <c r="C13">
-        <v>1.960852344927332</v>
+        <v>0.6096615108016863</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.052318161198178</v>
+        <v>0.2080510904788504</v>
       </c>
       <c r="F13">
-        <v>4.311045612453398</v>
+        <v>3.205875174251446</v>
       </c>
       <c r="G13">
-        <v>0.0007440091361768422</v>
+        <v>0.00245666778023882</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.997681973192925</v>
+        <v>1.329363624224627</v>
       </c>
       <c r="J13">
-        <v>0.1243433302659511</v>
+        <v>0.1076162496165622</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.180586500929792</v>
+        <v>0.5960559576742241</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.421245103960473</v>
+        <v>1.47117817936379</v>
       </c>
       <c r="C14">
-        <v>1.920914300276934</v>
+        <v>0.6004515568168358</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05191476907661929</v>
+        <v>0.2081270745504256</v>
       </c>
       <c r="F14">
-        <v>4.238750050847813</v>
+        <v>3.192447841674039</v>
       </c>
       <c r="G14">
-        <v>0.0007460082797840012</v>
+        <v>0.002457664272934799</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.965428537637351</v>
+        <v>1.323247132367101</v>
       </c>
       <c r="J14">
-        <v>0.1227736963297588</v>
+        <v>0.1073598692632558</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.157990009493325</v>
+        <v>0.5911578894667571</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.366682100579965</v>
+        <v>1.458222919112359</v>
       </c>
       <c r="C15">
-        <v>1.896577595266024</v>
+        <v>0.594815301039489</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05166892137388146</v>
+        <v>0.2081746273225846</v>
       </c>
       <c r="F15">
-        <v>4.194751817792564</v>
+        <v>3.184256932095309</v>
       </c>
       <c r="G15">
-        <v>0.0007472328037479025</v>
+        <v>0.002458278038614609</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.945833948530918</v>
+        <v>1.31951514703178</v>
       </c>
       <c r="J15">
-        <v>0.1218237946272467</v>
+        <v>0.1072038876293462</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.144202986774154</v>
+        <v>0.5881640569754438</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.057401836718554</v>
+        <v>1.384168900824761</v>
       </c>
       <c r="C16">
-        <v>1.758924513103977</v>
+        <v>0.5625935539852662</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05027802809093984</v>
+        <v>0.2084626706972887</v>
       </c>
       <c r="F16">
-        <v>3.946737945707071</v>
+        <v>3.137833053402119</v>
       </c>
       <c r="G16">
-        <v>0.0007542537087365707</v>
+        <v>0.002461847279052217</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.83587971524436</v>
+        <v>1.298350082998624</v>
       </c>
       <c r="J16">
-        <v>0.1165469976347424</v>
+        <v>0.1063261333490573</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.065971577608217</v>
+        <v>0.5711052532703889</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.870453964953413</v>
+        <v>1.338905053154519</v>
       </c>
       <c r="C17">
-        <v>1.675963145806236</v>
+        <v>0.5428945890622572</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04943972841626199</v>
+        <v>0.208653297356804</v>
       </c>
       <c r="F17">
-        <v>3.798016245851812</v>
+        <v>3.109810903187594</v>
       </c>
       <c r="G17">
-        <v>0.0007585679658130839</v>
+        <v>0.002464083416566884</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.770363489326954</v>
+        <v>1.285562006683051</v>
       </c>
       <c r="J17">
-        <v>0.1134481188265895</v>
+        <v>0.105801914076288</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.018619537408298</v>
+        <v>0.560727270109652</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.76385793611189</v>
+        <v>1.312930952038528</v>
       </c>
       <c r="C18">
-        <v>1.628742388712283</v>
+        <v>0.5315888765042587</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04896268135802195</v>
+        <v>0.2087680794972009</v>
       </c>
       <c r="F18">
-        <v>3.713640458040004</v>
+        <v>3.093860578025669</v>
       </c>
       <c r="G18">
-        <v>0.0007610535030793652</v>
+        <v>0.002465386730559804</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.733337572097767</v>
+        <v>1.278278047622891</v>
       </c>
       <c r="J18">
-        <v>0.1117126244510303</v>
+        <v>0.1055055865945462</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9915995778410576</v>
+        <v>0.5547900834806612</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.727918063438835</v>
+        <v>1.304146906239907</v>
       </c>
       <c r="C19">
-        <v>1.612835122208139</v>
+        <v>0.5277651466451516</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04880200820895375</v>
+        <v>0.2088078275018379</v>
       </c>
       <c r="F19">
-        <v>3.685263876851025</v>
+        <v>3.088488724388895</v>
       </c>
       <c r="G19">
-        <v>0.0007618958967133448</v>
+        <v>0.002465830960189562</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.720909222796024</v>
+        <v>1.275824028658107</v>
       </c>
       <c r="J19">
-        <v>0.1111327207623631</v>
+        <v>0.1054061418876628</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9824863603561624</v>
+        <v>0.5527853394636395</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.890256490571744</v>
+        <v>1.343717197778346</v>
       </c>
       <c r="C20">
-        <v>1.684742087063796</v>
+        <v>0.544989021587071</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04952842889878362</v>
+        <v>0.2086324734979925</v>
       </c>
       <c r="F20">
-        <v>3.813725307854696</v>
+        <v>3.112776578287253</v>
       </c>
       <c r="G20">
-        <v>0.0007581083139822807</v>
+        <v>0.002463843602407595</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.777268595750925</v>
+        <v>1.286915915065649</v>
       </c>
       <c r="J20">
-        <v>0.1137730614531449</v>
+        <v>0.1058571799105152</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.023637494785106</v>
+        <v>0.5618287162337481</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.447473315784691</v>
+        <v>1.477393910736225</v>
       </c>
       <c r="C21">
-        <v>1.932618391452593</v>
+        <v>0.6031556770559519</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05203299365597758</v>
+        <v>0.2081045457580348</v>
       </c>
       <c r="F21">
-        <v>4.259925035099911</v>
+        <v>3.1963847430616</v>
       </c>
       <c r="G21">
-        <v>0.0007454210941887176</v>
+        <v>0.002457370873785009</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.974868130202594</v>
+        <v>1.325040660131521</v>
       </c>
       <c r="J21">
-        <v>0.1232323046024391</v>
+        <v>0.1074349534747441</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.164615771172713</v>
+        <v>0.5925952419342337</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.822016819624594</v>
+        <v>1.565308539951843</v>
       </c>
       <c r="C22">
-        <v>2.100145922258719</v>
+        <v>0.6413984685966057</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05372437529341845</v>
+        <v>0.2078047953809055</v>
       </c>
       <c r="F22">
-        <v>4.564032483473397</v>
+        <v>3.252534505616069</v>
       </c>
       <c r="G22">
-        <v>0.0007371328871424311</v>
+        <v>0.002453292211494708</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.111091379810617</v>
+        <v>1.350606585232327</v>
       </c>
       <c r="J22">
-        <v>0.1299203314870638</v>
+        <v>0.1085133743586937</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.259114925212913</v>
+        <v>0.6129882174343066</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.621056444226213</v>
+        <v>1.518336069290797</v>
       </c>
       <c r="C23">
-        <v>2.010168683470283</v>
+        <v>0.6209663435492985</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05281616157085978</v>
+        <v>0.207960657549302</v>
       </c>
       <c r="F23">
-        <v>4.400469603379321</v>
+        <v>3.222427580011868</v>
       </c>
       <c r="G23">
-        <v>0.0007415578717514853</v>
+        <v>0.002455455245983697</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.037673308151838</v>
+        <v>1.336901518592256</v>
       </c>
       <c r="J23">
-        <v>0.1262998025153905</v>
+        <v>0.1079334263545348</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.208439470109241</v>
+        <v>0.6020779626071402</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.881301040718029</v>
+        <v>1.341541475658914</v>
       </c>
       <c r="C24">
-        <v>1.680771660232779</v>
+        <v>0.5440420680433249</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04948831222833938</v>
+        <v>0.2086418717987719</v>
       </c>
       <c r="F24">
-        <v>3.806619754948542</v>
+        <v>3.111435298457764</v>
       </c>
       <c r="G24">
-        <v>0.0007583161060020525</v>
+        <v>0.00246395196714593</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.774144815800739</v>
+        <v>1.286303601190852</v>
       </c>
       <c r="J24">
-        <v>0.113626012244616</v>
+        <v>0.1058321784987299</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.021368247459648</v>
+        <v>0.5613306613284337</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.118134180266452</v>
+        <v>1.153145029796178</v>
       </c>
       <c r="C25">
-        <v>1.344004105759609</v>
+        <v>0.4620026376072701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0460919443799046</v>
+        <v>0.2095734296736325</v>
       </c>
       <c r="F25">
-        <v>3.20972840557036</v>
+        <v>2.998096768494833</v>
       </c>
       <c r="G25">
-        <v>0.0007765622755303495</v>
+        <v>0.002473773270050779</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.514519953489042</v>
+        <v>1.234447424482951</v>
       </c>
       <c r="J25">
-        <v>0.1017134973213487</v>
+        <v>0.1037634297890762</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8276467026081349</v>
+        <v>0.5185993133476501</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01632183954996</v>
+        <v>2.577080476575929</v>
       </c>
       <c r="C2">
-        <v>0.4023430362566955</v>
+        <v>1.107203033941232</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2104312468631395</v>
+        <v>0.0437243429235501</v>
       </c>
       <c r="F2">
-        <v>2.920020281228375</v>
+        <v>2.79848507581562</v>
       </c>
       <c r="G2">
-        <v>0.002481576078569295</v>
+        <v>0.00079028737399042</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.19852442658032</v>
+        <v>1.339198004342236</v>
       </c>
       <c r="J2">
-        <v>0.1024042581127063</v>
+        <v>0.0940758331392999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4881751582873264</v>
+        <v>0.6899961266970749</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9247341823006536</v>
+        <v>2.219721205196038</v>
       </c>
       <c r="C3">
-        <v>0.362348027856342</v>
+        <v>0.9517342501490305</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2111212489466503</v>
+        <v>0.04219167910092203</v>
       </c>
       <c r="F3">
-        <v>2.870403107836196</v>
+        <v>2.533546326611955</v>
       </c>
       <c r="G3">
-        <v>0.002487224107565755</v>
+        <v>0.0007998298426187444</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.175547328409138</v>
+        <v>1.228063113313823</v>
       </c>
       <c r="J3">
-        <v>0.1015824560539897</v>
+        <v>0.089452910921068</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4681995966316421</v>
+        <v>0.5990143289514904</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8690486573294152</v>
+        <v>2.003857914463197</v>
       </c>
       <c r="C4">
-        <v>0.3379977774332872</v>
+        <v>0.8582020806426272</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2115989946675594</v>
+        <v>0.04128349607267978</v>
       </c>
       <c r="F4">
-        <v>2.841546261029691</v>
+        <v>2.376565237470729</v>
       </c>
       <c r="G4">
-        <v>0.002490870746426003</v>
+        <v>0.0008058246802874011</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.162101214449436</v>
+        <v>1.162992261687592</v>
       </c>
       <c r="J4">
-        <v>0.1011258823149248</v>
+        <v>0.08684403440705424</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4562506741963333</v>
+        <v>0.5440604476986337</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8464933194668447</v>
+        <v>1.916648849716609</v>
       </c>
       <c r="C5">
-        <v>0.3281258047595657</v>
+        <v>0.8204990205100273</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2118073550078741</v>
+        <v>0.04092138748110052</v>
       </c>
       <c r="F5">
-        <v>2.830189068588595</v>
+        <v>2.31387892756851</v>
       </c>
       <c r="G5">
-        <v>0.002492401885210676</v>
+        <v>0.0008083040079453163</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.156786489278019</v>
+        <v>1.137188357034205</v>
       </c>
       <c r="J5">
-        <v>0.1009517613891404</v>
+        <v>0.08583287729674893</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4514608657739601</v>
+        <v>0.521864779520925</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8427562594529263</v>
+        <v>1.902209801569967</v>
       </c>
       <c r="C6">
-        <v>0.3264896179052812</v>
+        <v>0.8142613602169604</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.211842781269544</v>
+        <v>0.04086173486033218</v>
       </c>
       <c r="F6">
-        <v>2.828327443421657</v>
+        <v>2.303543465757329</v>
       </c>
       <c r="G6">
-        <v>0.002492658858425654</v>
+        <v>0.0008087179579616177</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.155913877550731</v>
+        <v>1.132944409128527</v>
       </c>
       <c r="J6">
-        <v>0.1009235656682748</v>
+        <v>0.08566795688884099</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4506703213381016</v>
+        <v>0.5181903643743269</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8687439152159868</v>
+        <v>2.002678889611389</v>
       </c>
       <c r="C7">
-        <v>0.3378644356385792</v>
+        <v>0.8576920261220664</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2116017492151556</v>
+        <v>0.04127858054809685</v>
       </c>
       <c r="F7">
-        <v>2.841391468386391</v>
+        <v>2.375714810484297</v>
       </c>
       <c r="G7">
-        <v>0.002490891213074196</v>
+        <v>0.0008058579672326816</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.162028873797425</v>
+        <v>1.162641478884993</v>
       </c>
       <c r="J7">
-        <v>0.1011234859104384</v>
+        <v>0.08683019433288663</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4561857554015774</v>
+        <v>0.5437603433499376</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9846275367516455</v>
+        <v>2.45303774062279</v>
       </c>
       <c r="C8">
-        <v>0.3885091711360928</v>
+        <v>1.053151759392335</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2106579800146573</v>
+        <v>0.04318886070820049</v>
       </c>
       <c r="F8">
-        <v>2.902577119732896</v>
+        <v>2.70586023224422</v>
       </c>
       <c r="G8">
-        <v>0.002483486521931261</v>
+        <v>0.0007935508704787253</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.190463467965287</v>
+        <v>1.300168950265487</v>
       </c>
       <c r="J8">
-        <v>0.102110851872105</v>
+        <v>0.09243054842630727</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4812219408200846</v>
+        <v>0.6584177891615539</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.216306982365381</v>
+        <v>3.371421896869549</v>
       </c>
       <c r="C9">
-        <v>0.4895180781534236</v>
+        <v>1.45542337323775</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2092331113738339</v>
+        <v>0.04721351846230526</v>
       </c>
       <c r="F9">
-        <v>3.035432585774146</v>
+        <v>3.40583948498977</v>
       </c>
       <c r="G9">
-        <v>0.002470376652586503</v>
+        <v>0.0007703796451532594</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.251558989414718</v>
+        <v>1.599191378874551</v>
       </c>
       <c r="J9">
-        <v>0.1044344072454564</v>
+        <v>0.1055274164247777</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5328313831683573</v>
+        <v>0.8920094227299629</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.38934205018495</v>
+        <v>4.078866617443737</v>
       </c>
       <c r="C10">
-        <v>0.5648447060651733</v>
+        <v>1.768461713098759</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2084416135365466</v>
+        <v>0.05037440415405392</v>
       </c>
       <c r="F10">
-        <v>3.141053301013528</v>
+        <v>3.963872659172296</v>
       </c>
       <c r="G10">
-        <v>0.002461594440167057</v>
+        <v>0.0007537618731163764</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.299819012352884</v>
+        <v>1.843448495087756</v>
       </c>
       <c r="J10">
-        <v>0.1063866571600443</v>
+        <v>0.1169072323430242</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5722937856243107</v>
+        <v>1.071405390867262</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.468700008489236</v>
+        <v>4.410797112620685</v>
       </c>
       <c r="C11">
-        <v>0.59937343004799</v>
+        <v>1.916252984012772</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2081361081262649</v>
+        <v>0.05186768276091946</v>
       </c>
       <c r="F11">
-        <v>3.190879490617448</v>
+        <v>4.230319553240946</v>
       </c>
       <c r="G11">
-        <v>0.002457781442831554</v>
+        <v>0.0007462424434259504</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.322532601180939</v>
+        <v>1.961671990614533</v>
       </c>
       <c r="J11">
-        <v>0.1073299780978374</v>
+        <v>0.1225913700873633</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5905849989595708</v>
+        <v>1.15535035050469</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.498845231437997</v>
+        <v>4.538241348383849</v>
       </c>
       <c r="C12">
-        <v>0.6124876423402839</v>
+        <v>1.973150480412414</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2080281938499606</v>
+        <v>0.0524423614873708</v>
       </c>
       <c r="F12">
-        <v>3.210005924578013</v>
+        <v>4.333330030234265</v>
       </c>
       <c r="G12">
-        <v>0.002456363571631375</v>
+        <v>0.0007433960888924229</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.331244965673932</v>
+        <v>2.00763787896058</v>
       </c>
       <c r="J12">
-        <v>0.1076952881290723</v>
+        <v>0.1248293436001688</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5975604167660009</v>
+        <v>1.187537406440811</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.492348708374095</v>
+        <v>4.510710928597007</v>
       </c>
       <c r="C13">
-        <v>0.6096615108016863</v>
+        <v>1.960852344927787</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2080510904788504</v>
+        <v>0.0523181611982011</v>
       </c>
       <c r="F13">
-        <v>3.205875174251446</v>
+        <v>4.311045612453398</v>
       </c>
       <c r="G13">
-        <v>0.00245666778023882</v>
+        <v>0.0007440091361752306</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.329363624224627</v>
+        <v>1.99768197319294</v>
       </c>
       <c r="J13">
-        <v>0.1076162496165622</v>
+        <v>0.1243433302658374</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5960559576742241</v>
+        <v>1.18058650092982</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.47117817936379</v>
+        <v>4.421245103960416</v>
       </c>
       <c r="C14">
-        <v>0.6004515568168358</v>
+        <v>1.92091430027682</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2081270745504256</v>
+        <v>0.05191476907667258</v>
       </c>
       <c r="F14">
-        <v>3.192447841674039</v>
+        <v>4.238750050847841</v>
       </c>
       <c r="G14">
-        <v>0.002457664272934799</v>
+        <v>0.0007460082797622118</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.323247132367101</v>
+        <v>1.965428537637393</v>
       </c>
       <c r="J14">
-        <v>0.1073598692632558</v>
+        <v>0.1227736963297943</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5911578894667571</v>
+        <v>1.157990009493339</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.458222919112359</v>
+        <v>4.366682100579908</v>
       </c>
       <c r="C15">
-        <v>0.594815301039489</v>
+        <v>1.896577595266479</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2081746273225846</v>
+        <v>0.05166892137384771</v>
       </c>
       <c r="F15">
-        <v>3.184256932095309</v>
+        <v>4.194751817792593</v>
       </c>
       <c r="G15">
-        <v>0.002458278038614609</v>
+        <v>0.0007472328037594345</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.31951514703178</v>
+        <v>1.945833948530918</v>
       </c>
       <c r="J15">
-        <v>0.1072038876293462</v>
+        <v>0.1218237946272041</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5881640569754438</v>
+        <v>1.144202986774147</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.384168900824761</v>
+        <v>4.057401836718725</v>
       </c>
       <c r="C16">
-        <v>0.5625935539852662</v>
+        <v>1.758924513103352</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2084626706972887</v>
+        <v>0.05027802809096471</v>
       </c>
       <c r="F16">
-        <v>3.137833053402119</v>
+        <v>3.946737945707099</v>
       </c>
       <c r="G16">
-        <v>0.002461847279052217</v>
+        <v>0.0007542537087902445</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.298350082998624</v>
+        <v>1.83587971524436</v>
       </c>
       <c r="J16">
-        <v>0.1063261333490573</v>
+        <v>0.1165469976347779</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5711052532703889</v>
+        <v>1.065971577608202</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.338905053154519</v>
+        <v>3.870453964953356</v>
       </c>
       <c r="C17">
-        <v>0.5428945890622572</v>
+        <v>1.675963145805838</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.208653297356804</v>
+        <v>0.0494397284162762</v>
       </c>
       <c r="F17">
-        <v>3.109810903187594</v>
+        <v>3.798016245851812</v>
       </c>
       <c r="G17">
-        <v>0.002464083416566884</v>
+        <v>0.0007585679658146894</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.285562006683051</v>
+        <v>1.77036348932694</v>
       </c>
       <c r="J17">
-        <v>0.105801914076288</v>
+        <v>0.1134481188267173</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.560727270109652</v>
+        <v>1.01861953740832</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.312930952038528</v>
+        <v>3.763857936111947</v>
       </c>
       <c r="C18">
-        <v>0.5315888765042587</v>
+        <v>1.62874238871251</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2087680794972009</v>
+        <v>0.04896268135795268</v>
       </c>
       <c r="F18">
-        <v>3.093860578025669</v>
+        <v>3.713640458040004</v>
       </c>
       <c r="G18">
-        <v>0.002465386730559804</v>
+        <v>0.0007610535030790644</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.278278047622891</v>
+        <v>1.733337572097781</v>
       </c>
       <c r="J18">
-        <v>0.1055055865945462</v>
+        <v>0.1117126244510729</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5547900834806612</v>
+        <v>0.9915995778410576</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.304146906239907</v>
+        <v>3.727918063438949</v>
       </c>
       <c r="C19">
-        <v>0.5277651466451516</v>
+        <v>1.612835122208139</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2088078275018379</v>
+        <v>0.04880200820889868</v>
       </c>
       <c r="F19">
-        <v>3.088488724388895</v>
+        <v>3.685263876851053</v>
       </c>
       <c r="G19">
-        <v>0.002465830960189562</v>
+        <v>0.0007618958967740856</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.275824028658107</v>
+        <v>1.720909222796038</v>
       </c>
       <c r="J19">
-        <v>0.1054061418876628</v>
+        <v>0.1111327207623205</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5527853394636395</v>
+        <v>0.982486360356134</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.343717197778346</v>
+        <v>3.890256490571801</v>
       </c>
       <c r="C20">
-        <v>0.544989021587071</v>
+        <v>1.684742087063796</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2086324734979925</v>
+        <v>0.04952842889880316</v>
       </c>
       <c r="F20">
-        <v>3.112776578287253</v>
+        <v>3.813725307854725</v>
       </c>
       <c r="G20">
-        <v>0.002463843602407595</v>
+        <v>0.0007581083139773957</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.286915915065649</v>
+        <v>1.77726859575094</v>
       </c>
       <c r="J20">
-        <v>0.1058571799105152</v>
+        <v>0.1137730614531094</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5618287162337481</v>
+        <v>1.023637494785127</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.477393910736225</v>
+        <v>4.447473315784634</v>
       </c>
       <c r="C21">
-        <v>0.6031556770559519</v>
+        <v>1.93261839145282</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2081045457580348</v>
+        <v>0.05203299365599534</v>
       </c>
       <c r="F21">
-        <v>3.1963847430616</v>
+        <v>4.25992503509994</v>
       </c>
       <c r="G21">
-        <v>0.002457370873785009</v>
+        <v>0.0007454210941113537</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.325040660131521</v>
+        <v>1.974868130202637</v>
       </c>
       <c r="J21">
-        <v>0.1074349534747441</v>
+        <v>0.1232323046023183</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5925952419342337</v>
+        <v>1.164615771172691</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.565308539951843</v>
+        <v>4.822016819624423</v>
       </c>
       <c r="C22">
-        <v>0.6413984685966057</v>
+        <v>2.100145922258491</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2078047953809055</v>
+        <v>0.05372437529342378</v>
       </c>
       <c r="F22">
-        <v>3.252534505616069</v>
+        <v>4.564032483473369</v>
       </c>
       <c r="G22">
-        <v>0.002453292211494708</v>
+        <v>0.0007371328872923211</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.350606585232327</v>
+        <v>2.111091379810631</v>
       </c>
       <c r="J22">
-        <v>0.1085133743586937</v>
+        <v>0.1299203314869999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6129882174343066</v>
+        <v>1.259114925212884</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.518336069290797</v>
+        <v>4.621056444226213</v>
       </c>
       <c r="C23">
-        <v>0.6209663435492985</v>
+        <v>2.010168683470454</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.207960657549302</v>
+        <v>0.05281616157085445</v>
       </c>
       <c r="F23">
-        <v>3.222427580011868</v>
+        <v>4.400469603379321</v>
       </c>
       <c r="G23">
-        <v>0.002455455245983697</v>
+        <v>0.0007415578716190813</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.336901518592256</v>
+        <v>2.037673308151867</v>
       </c>
       <c r="J23">
-        <v>0.1079334263545348</v>
+        <v>0.1262998025152839</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6020779626071402</v>
+        <v>1.208439470109241</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.341541475658914</v>
+        <v>3.881301040717858</v>
       </c>
       <c r="C24">
-        <v>0.5440420680433249</v>
+        <v>1.680771660232949</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2086418717987719</v>
+        <v>0.04948831222836425</v>
       </c>
       <c r="F24">
-        <v>3.111435298457764</v>
+        <v>3.806619754948571</v>
       </c>
       <c r="G24">
-        <v>0.00246395196714593</v>
+        <v>0.000758316105998961</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.286303601190852</v>
+        <v>1.774144815800753</v>
       </c>
       <c r="J24">
-        <v>0.1058321784987299</v>
+        <v>0.1136260122447723</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5613306613284337</v>
+        <v>1.021368247459627</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.153145029796178</v>
+        <v>3.118134180266338</v>
       </c>
       <c r="C25">
-        <v>0.4620026376072701</v>
+        <v>1.344004105759723</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2095734296736325</v>
+        <v>0.04609194437990638</v>
       </c>
       <c r="F25">
-        <v>2.998096768494833</v>
+        <v>3.209728405570388</v>
       </c>
       <c r="G25">
-        <v>0.002473773270050779</v>
+        <v>0.0007765622754760055</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.234447424482951</v>
+        <v>1.514519953489042</v>
       </c>
       <c r="J25">
-        <v>0.1037634297890762</v>
+        <v>0.1017134973212421</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5185993133476501</v>
+        <v>0.8276467026081278</v>
       </c>
       <c r="N25">
         <v>0</v>
